--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dac365-my.sharepoint.com/personal/hquispem_primax_com/Documents/Documentos/UiPath/01_Envio_Documento_Clientes/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dac365-my.sharepoint.com/personal/hquispem_primax_com/Documents/Documentos/Uipath_GIT/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{56201F29-5EC0-4883-AE35-AC6530CC0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500B0293-D6CE-4329-A498-F0D648C549A8}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{56201F29-5EC0-4883-AE35-AC6530CC0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0070878D-13B1-46C1-9261-E2DC3A41CED6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -584,12 +584,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -637,7 +637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -649,7 +649,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1698,12 +1698,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1740,7 +1740,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2859,12 +2859,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
